--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINNY-T14S\Documents\Github\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99D689B-8076-413F-A759-5EC2568BA66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25A5EF-5F78-4432-8B77-69F6AC387B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>A</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>tCD</t>
   </si>
 </sst>
 </file>
@@ -440,15 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5BE3D-8D58-437E-98AF-66E55476FC3B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +479,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -490,8 +505,11 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -514,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -537,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -560,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -581,6 +599,29 @@
       </c>
       <c r="G6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINNY-T14S\Documents\Github\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25A5EF-5F78-4432-8B77-69F6AC387B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598B21C-424E-45FF-AD34-6FE95D23FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>tCD</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5BE3D-8D58-437E-98AF-66E55476FC3B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -622,6 +631,57 @@
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINNY-T14S\Documents\Github\CSC3210\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598B21C-424E-45FF-AD34-6FE95D23FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F826833-24DD-4DC6-B19C-E6D6A29C826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>s4</t>
+  </si>
+  <si>
+    <t>t max</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -458,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5BE3D-8D58-437E-98AF-66E55476FC3B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -491,8 +506,11 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -517,8 +535,11 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -541,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -564,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -587,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -610,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -624,27 +645,27 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -656,18 +677,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -679,9 +700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F826833-24DD-4DC6-B19C-E6D6A29C826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D8C92-573B-45FD-9C9E-840F7C10CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="state transition table" sheetId="2" r:id="rId1"/>
+    <sheet name="Karnaugh maps" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,26 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -71,47 +60,87 @@
     <t>S5</t>
   </si>
   <si>
-    <t>s0</t>
-  </si>
-  <si>
     <t>30s</t>
   </si>
   <si>
-    <t>tCD</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>t max</t>
-  </si>
-  <si>
-    <t>2 min</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>State</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Current State</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>E: Green
+A,B,C,D,F: Red</t>
+  </si>
+  <si>
+    <t>E,B: Red
+A,F,C,D: Turn</t>
+  </si>
+  <si>
+    <t>E,B: Red
+A,F,C,D: Green</t>
+  </si>
+  <si>
+    <t>B: Green
+A,C,D,E,F: Red</t>
+  </si>
+  <si>
+    <t>A_turn</t>
+  </si>
+  <si>
+    <t>A_straight</t>
+  </si>
+  <si>
+    <t>C_turn</t>
+  </si>
+  <si>
+    <t>C_straight</t>
+  </si>
+  <si>
+    <t>D_turn</t>
+  </si>
+  <si>
+    <t>D_straight</t>
+  </si>
+  <si>
+    <t>F_turn</t>
+  </si>
+  <si>
+    <t>F_straight</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>Delay(t)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,8 +166,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,239 +520,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5BE3D-8D58-437E-98AF-66E55476FC3B}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C793C4-BC91-4566-98E8-8D0EE9B2BB0E}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5804FEB5-26A4-452E-8D47-2FCD5E34A8E6}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
         <v>0</v>
       </c>
     </row>

--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D8C92-573B-45FD-9C9E-840F7C10CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FC422-C0B7-4846-BBDE-2EA80BCA1900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
+    <workbookView xWindow="-21600" yWindow="9930" windowWidth="21600" windowHeight="18900" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
   </bookViews>
   <sheets>
     <sheet name="state transition table" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>B</t>
   </si>
@@ -125,13 +125,31 @@
   </si>
   <si>
     <t>Delay(t)</t>
+  </si>
+  <si>
+    <t>S4 (100)</t>
+  </si>
+  <si>
+    <t>S5 (101)</t>
+  </si>
+  <si>
+    <t>S0 (000)</t>
+  </si>
+  <si>
+    <t>S1 (001)</t>
+  </si>
+  <si>
+    <t>S2 (010)</t>
+  </si>
+  <si>
+    <t>S3 (011)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,9 +195,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,54 +539,80 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -579,19 +620,40 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -599,19 +661,40 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -619,19 +702,40 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -639,18 +743,40 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -658,17 +784,40 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -676,13 +825,36 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -699,26 +871,26 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B1" sqref="B1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -750,213 +922,213 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
         <v>0</v>
       </c>
     </row>

--- a/lab1/Book1.xlsx
+++ b/lab1/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC3210\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINNY-T14S\Documents\Github\CSC3210\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FC422-C0B7-4846-BBDE-2EA80BCA1900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3642BEC7-8795-4B12-9F9E-FEEFA47B3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="9930" windowWidth="21600" windowHeight="18900" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{CA728277-50F4-43E6-8229-8607A88393CD}"/>
   </bookViews>
   <sheets>
     <sheet name="state transition table" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>B</t>
   </si>
@@ -143,13 +143,67 @@
   </si>
   <si>
     <t>S3 (011)</t>
+  </si>
+  <si>
+    <t>next state</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>k-map</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -180,18 +234,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,9 +309,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,324 +658,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C793C4-BC91-4566-98E8-8D0EE9B2BB0E}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="134" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="14.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.5">
-      <c r="A5" t="s">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.5">
-      <c r="A6" t="s">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.5">
-      <c r="A7" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.5">
-      <c r="A8" t="s">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.5">
-      <c r="A9" t="s">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -874,261 +1247,261 @@
       <selection activeCell="B1" sqref="B1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="3.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>0</v>
       </c>
     </row>
